--- a/CITCEA/Calculadora simple/Calculadora simple/CSV/Results/Sizing.xlsx
+++ b/CITCEA/Calculadora simple/Calculadora simple/CSV/Results/Sizing.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>484.46</v>
+        <v>565.66</v>
       </c>
     </row>
   </sheetData>
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1343</v>
+        <v>1197</v>
       </c>
       <c r="D2" t="n">
-        <v>1343</v>
+        <v>1197</v>
       </c>
       <c r="E2" t="n">
-        <v>1343</v>
+        <v>1197</v>
       </c>
       <c r="F2" t="n">
-        <v>1343</v>
+        <v>1197</v>
       </c>
     </row>
   </sheetData>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>550.28</v>
+        <v>566.96</v>
       </c>
       <c r="D2" t="n">
-        <v>787.62</v>
+        <v>783.63</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
